--- a/tweet.xlsx
+++ b/tweet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taner\Desktop\thesis_team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263EFA80-A22E-41D3-8B5A-765A6AA15B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DBE08C-1D9B-4019-A7C0-4DDEBC46C803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
   <si>
     <t>Tweet</t>
   </si>
@@ -1276,13 +1276,568 @@
   </si>
   <si>
     <t>uzaktan eğitim iyi çalışan bir sistemdir</t>
+  </si>
+  <si>
+    <t>uzaktan eğitimin verimsizliği şaka mı ya</t>
+  </si>
+  <si>
+    <t>bu şekilde olacaksa uzaktan eğitim değil kafamızın içine bağırsalar da bir anlam ifade etmez</t>
+  </si>
+  <si>
+    <t>çok fazla kilo aldım, yine yaptın yapacağını uzaktan eğitim</t>
+  </si>
+  <si>
+    <t>sürekli dikkatim dağılıyor ben bu uzaktan eğitim işine alışamadım ya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evinde altyapı yoksa iyi bir uzaktan eğitim de yok bu kadar basit </t>
+  </si>
+  <si>
+    <t>uzaktan eğitim cehalettir</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim çok büyük bir hatadır göreceksiniz</t>
+  </si>
+  <si>
+    <t>bu uzaktan eğitim muhabbeti başladığından beri girdiğim ders sayısı sıfır</t>
+  </si>
+  <si>
+    <t>uzaktan eğitimde hocaların anlatımı yüz yüzedeki kadar etkili değil</t>
+  </si>
+  <si>
+    <t>hocası ayrı, dersleri ayrı uzaktan eğitim diye bilerek zorluyorlar</t>
+  </si>
+  <si>
+    <t>İki dakikada bir bağlantım kopmasaydı uzaktan eğitim işe yarardı.</t>
+  </si>
+  <si>
+    <t>Gereksiz yere ilan edilen uzaktan eğitim sistemden dolayı sosyalleşemiyoruz</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim bizi bitirdin be</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim çok kötü ya, insan hiç odaklanamıyor</t>
+  </si>
+  <si>
+    <t>hiç derdim yokmuş gibi bir de uzaktan eğitim belasıyla uğraşıyorum</t>
+  </si>
+  <si>
+    <t>Bu uzaktan eğitim konusunda hala olumsuzum</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimin yararlı olduğu konusunda bir tane doğru düzgün çalışma yok</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim, öğrencilerin öğretmenleriyle yüz yüze etkileşim kurmasını engelliyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim, öğrencilerin sınıf içi etkileşimleri yok ediyor.</t>
+  </si>
+  <si>
+    <t>Abi daha ne istiyorsunuz uzaktan eğitim sayesinde zaman tasarrufu sağlıyoruz işte</t>
+  </si>
+  <si>
+    <t>iş hayatımı uzaktan eğitim sayesinde düzene sokabiliyorum.</t>
+  </si>
+  <si>
+    <t>online eğitim olduğu için dersleri sonradan izleyebilmek mükemmel</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimin bütün okullarda kötü işlemesi rezilliktir.</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim sayesinde okulun bilgisayarlarından kurtulduk daha rahatız</t>
+  </si>
+  <si>
+    <t>uzaktan eğitimin yaygınlaşması çoğumuzun yararına</t>
+  </si>
+  <si>
+    <t>uzaktan eğitimin iyi işlendiğini düşünüyorum</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim olmasa maddi ve manevi olarak daha yorgun olurduk</t>
+  </si>
+  <si>
+    <t>uzaktan eğitimin faydalı olduğu aşikar</t>
+  </si>
+  <si>
+    <t>bence okula git-gel yapıp boşa vakit kaybetmektense uzaktan eğitime katılmak daha mantıklı</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim teorik derslere daha fazla odaklanmamı sağladı.</t>
+  </si>
+  <si>
+    <t>nereden çıktı şu uzaktan eğitim denen bela?</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim ne kadar da verimsiz</t>
+  </si>
+  <si>
+    <t>Okula gitmeden bir şey öğreneceğini sananlar hiç uzaktan eğitime girişmeden okulu bırakabilirler.</t>
+  </si>
+  <si>
+    <t>Ne kadar istesem de bu uzaktan eğitim dersleri esnasında dikkatimi toplayamıyorum</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim faydasız</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim yetersizdir</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim eğitimi yok etmektir.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim hikaye, hiçbir şey öğrenemiyorum.</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim ile derslere odaklanma şansım yok</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim kesinlikle verimsiz diyebilirim</t>
+  </si>
+  <si>
+    <t>uzaktan eğitimi nasıl faydalı buluyorsunuz aklım almıyor</t>
+  </si>
+  <si>
+    <t>uzaktan eğitimle beraber 2 yılım kayboldu</t>
+  </si>
+  <si>
+    <t>Derhal uzaktan eğitim bitirilmeli çok şey kaçırıyoruz</t>
+  </si>
+  <si>
+    <t>Eğitimin uzaktanı makul değildir</t>
+  </si>
+  <si>
+    <t>Bu şekilde bir eğitim sisteminin üstüne bir de uzaktan eğitim olunca doğru dürüst bir şey öğrenemiyoruz</t>
+  </si>
+  <si>
+    <t>Online eğitim denen şey kadar gereksizini görmedim</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim meşru olsaydı okul diye bir şey olmazdı okulları açın hata yapıyorsunuz.</t>
+  </si>
+  <si>
+    <t>En iyi eğitim tarzını bilmem ama en kötüsü online eğitim</t>
+  </si>
+  <si>
+    <t>online eğitim sayesinde yeterli bilgiye sahip değilim ki mutlu olabileyim</t>
+  </si>
+  <si>
+    <t>online eğitimden memnun değiliz</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim yetersiz iletişime sebep oluyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim daha iyi, böyle olmasaydı neden yoktu diye ağlardınız.</t>
+  </si>
+  <si>
+    <t>Ben uzaktan eğitimden memnunum</t>
+  </si>
+  <si>
+    <t>Daha iyisini yapana kadar en iyisi uzaktan eğitimdir</t>
+  </si>
+  <si>
+    <t>Ben bu şekildeki uzaktan eğitimden devam diyorum</t>
+  </si>
+  <si>
+    <t>Bir yandan ders çalışıyorum bir yandan işimi yapıyorum ben razıyım</t>
+  </si>
+  <si>
+    <t>Bence uzaktan eğitim doğru karar</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimin yararlı olduğunu düşünüyorum</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim olmasaydı her gün en az bir saat vakit kaybediyordum bu şekilde devam etmeli</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim keyifli</t>
+  </si>
+  <si>
+    <t>Bence insanlar uzaktan eğitimin ne kadar gerekli olduğunu anlamıyor</t>
+  </si>
+  <si>
+    <t>oğlum bu güzel sistemi ben mi yaptım benim şu anda bir yetkim var mı? #uzaktaneğitim</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimden devamke</t>
+  </si>
+  <si>
+    <t>En büyük gerçek şu ki, sandıktan uzaktan eğitim mesajı çıkmıştır.</t>
+  </si>
+  <si>
+    <t>uzaktan eğitim isteyenler artık bu ülkede istemeyenlerden daha fazla.</t>
+  </si>
+  <si>
+    <t>Ancak şurası da net, bu kadar faydalı bir sistemle devam için çok daha fazla mücadele etmesi gereken taraf da biziz.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim sayesinde daha rahatım</t>
+  </si>
+  <si>
+    <t>Ben bu uzaktan eğitimden memnunum</t>
+  </si>
+  <si>
+    <t>Bence uzaktan bir şekilde bir süre daha devam etmeli böylesi daha uygun</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim sayesinde başka şeylere vakit harcayabiliyorum</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitime "eğitim" demek büyük hakaret</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim hayatımı bitirdin!</t>
+  </si>
+  <si>
+    <t>Ben bu uzaktan eğitimden hiç haz almıyorum</t>
+  </si>
+  <si>
+    <t>öğrencilerin durumları uzaktan eğitim için yeterli değil</t>
+  </si>
+  <si>
+    <t>öğrencilerin uzaktan eğitimden aldığı verim yarım yamalak</t>
+  </si>
+  <si>
+    <t>Öğretmenler bile uzaktan eğitimi umursamazken ben ne yapabilirim</t>
+  </si>
+  <si>
+    <t>Bu şekilde devam edersek ben yetersiz biri olarak mezun olacağım.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimi istemiyorum</t>
+  </si>
+  <si>
+    <t>Bu faydasız sözde "uzaktan eğitim" artık bitmeli</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimin yetersiz olduğu açık</t>
+  </si>
+  <si>
+    <t>Bence kendi kariyerini önemseyen hiçbir öğrenci uzaktan eğitimi istemez</t>
+  </si>
+  <si>
+    <t>Online eğitimden gına geldi.</t>
+  </si>
+  <si>
+    <t>Bu şekilde aldığımız derslerin bize bir faydası olmuyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim diye tutturanlar iyi bir eğitim istemiyor.</t>
+  </si>
+  <si>
+    <t>Bence bu uzaktan eğitim kararı çok yanlış acilen bu karardan geri dönülmeli</t>
+  </si>
+  <si>
+    <t>Ne derseniz diyin ben uzaktan eğitimi destekliyorum</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim şimdilik başarılıdır ve devam etmelidir.</t>
+  </si>
+  <si>
+    <t>Saçmalamayın! Uzaktan eğitim bir problemi çözmek için uygulandı ve bunu başardı.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim sistemi gayet iyi gidiyor</t>
+  </si>
+  <si>
+    <t>Remote çalışma sistemine alışınca uzaktan eğitim hiç de fena gelmiyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimden vazgeçmek karışıklık yaratacaktır bu nedenle böyle devam etmeli</t>
+  </si>
+  <si>
+    <t>Bu sistemi sadece ismi uzaktan yoksa sizi daha çok dersin içine çekiyor</t>
+  </si>
+  <si>
+    <t>online eğitim en iyisi olmasa da en azından bu zor dönemde işimizi görüyor</t>
+  </si>
+  <si>
+    <t>Online eğitim mevzusu süper ya multitask oldum resmen</t>
+  </si>
+  <si>
+    <t>Bence uzaktan eğitim teorik odaklı bölümlerde ve derslerde sürekli bir hale gelmeli</t>
+  </si>
+  <si>
+    <t>Önce eğitimde eşitlik sağlansın sonra uzaktan eğitimi konuşuruz, bu sistem herkese uygun değil</t>
+  </si>
+  <si>
+    <t>Tıp öğrencisiyim ve uzaktan eğitimle bir şey öğrenmem imkansız.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim uygulamalı dersleri bitiriyor, lütfen çok geç olmadan bu işten dönün</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimle olmuyor, bırakın okullarımıza dönelim</t>
+  </si>
+  <si>
+    <t>Bu sistemi istemiyoruz lütfen uzaktan eğitimde diretmeyin!</t>
+  </si>
+  <si>
+    <t>Online eğitim gerçekten rezillik! Cidden, niye bu kadar para ödüyorum, pijamalarımı giyip sıkıcı dersleri ekrandan izlemek için?</t>
+  </si>
+  <si>
+    <t>Eski günlerdeki yüz yüze dersleri özlüyorum, hocalarla ve sınıf arkadaşlarıyla gerçekten etkileşimde bulunabildiğimiz günler.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim pratik değil ki! Yük ağır, zorluklar bitmiyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim denen şey bir komedi ya</t>
+  </si>
+  <si>
+    <t>Teknik sorunlar, bağlantı kopmaları, kısacası rezillik bu uzaktan eğitim!</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim beni sinir ve hayal kırıklığına uğrattı. Pratik bir seçenek olduğunu düşünmüştüm, ama...</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim beni hayal kırıklığına uğrattı</t>
+  </si>
+  <si>
+    <t>Teknik sorunlar, bağlantı kesilmeleri. Online eğitimde sürekli bu engellerle uğraşmak zorunda kalıyorum. Bu beni sinirlendiriyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde eve hapsolmuş hissediyorum, odaklanmakta zorlanıyorum. Ders çalışmak için evde her zaman uygun bir ortam yok</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimle beraber yüküm arttı, buna yetişmek neredeyse imkansız. Bu kadar stresle nasıl başa çıkayım?</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimle gerçekten mutluyum! Evimde rahat, öğrenmek için daha fazla özgürlüğüm var. #UzaktanEğitimleMutlu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzaktan eğitimde inanılmaz kaynaklara ve çevrimiçi araçlara erişebiliyorum. Öğrenme potansiyelim sınırsız! </t>
+  </si>
+  <si>
+    <t>Eğitimimi istediğim hızda ilerletebiliyorum. Dersleri geri sarma, tekrar izleme özgürlüğü harika! #UzaktanEğitim</t>
+  </si>
+  <si>
+    <t>Sanal sınıflarda yeni insanlarla tanışmak, farklı fikirler keşfetmek harika bir deneyim</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim sisteminde öğretmenlerimle çevrimiçi olarak etkileşim kurmak, sorular sormak ve destek almak mükemmel</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimle daha fazla özyönetim ve disiplin kazandım. Kendi kendime motive olabiliyorum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esneklik benim için her şey demek bundan dolayı uzaktan eğitimde İş, hobiler ve eğitim arasında denge sağlayabiliyorum. </t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim sayesinde farklı kültürlerden öğrencilerle etkileşimde bulunmak harika bir deneyim</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim teknolojiyle iç içe olmak, dijital becerilerimi geliştirmek için harika bir fırsa</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimle kendi öğrenme yolculuğumu şekillendiriyorum. Kendi hedeflerime ulaşma şansım var</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim, teknolojik ilerlemelerle güçleniyor ve yüksek kaliteli eğitim imkanları sunuyor. #UzaktanEğitim</t>
+  </si>
+  <si>
+    <t>Sanal sınıflar, öğrencilere esneklik ve erişilebilirlik sağlıyor, böylece herkes eğitimine istediği zaman devam edebilir.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimle, öğrenciler bilgiye anında erişebilir, tartışmalara katılabilir ve öğretmenlerinden geri bildirim alabilir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dijital platformlar, öğrencilerin etkileşimli içeriklerle etkili bir şekilde öğrenmelerini sağlar ve işbirliği yapmalarına olanak tanır. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzaktan eğitim, öğrencilerin teknolojik becerilerini geliştirmelerine yardımcı olur ve dijital çağa hazırlar. </t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim, zaman ve mekandan bağımsız olarak öğrenme imkanı sunar, böylece herkes kendi tempolarında ilerleyebilir.</t>
+  </si>
+  <si>
+    <t>Eğitim materyalleri ve kaynakları çeşitlilik gösterir, böylece öğrenciler kendi ilgi alanlarına yönelik derinlemesine çalışma yapabilir</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim, uzman öğretmenlerin rehberliğinde, etkili öğretim stratejileriyle desteklenir.</t>
+  </si>
+  <si>
+    <t>Sanal ortam, öğrenciler arasında küresel bir iletişim ağı kurarak farklı kültürleri anlama ve değerlendirme becerilerini geliştirir.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim, geleceğin eğitimine yönelik yenilikçi bir adımdır ve öğrencilere başarıya giden yolda destek sağlar.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim demek, derslerin canlı yayınını izlemek demek</t>
+  </si>
+  <si>
+    <t>Hocalar anlatsın, ben uyuyayım! Bu ne saçmalık ya #UzaktanEğitim</t>
+  </si>
+  <si>
+    <t>İnternet çöktü, bağlantı gitti... Ders ne zaman bitecek</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde grup projeleri tam bir felaket! Kimseyle iletişim yok</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim, odaklanmayı unutmamıza yardımcı oluyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim ne zaman bitecek ya? Bu işkence bitsin artık</t>
+  </si>
+  <si>
+    <t>Hocaların videosunu izlemek zorunda mıyız? Sıkıldım be! 🙄 #UzaktanEğitim</t>
+  </si>
+  <si>
+    <t>Uykusuz gecelerin, sabahları alarmı erteleme savaşının adı: uzaktan eğitim</t>
+  </si>
+  <si>
+    <t>Bu teknik hatalar ne böyle? Bağlantı kopuyor, dersler kararıyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde motivasyon mu arıyorsunuz? Hayal kırıklığına uğratmayın kendinizi</t>
+  </si>
+  <si>
+    <t>Kimse odaklanamıyor! Sürekli telefon elimize kayıyor, dersler de çekilmez hale geliyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde sosyal hayatı unuttuk! Arkadaşlarımla görüşemiyoruz, bunun adı neyin kafası?</t>
+  </si>
+  <si>
+    <t>Zoom, Teams, Google Meet... Hangisi daha kötü anlamadım ki #OnlineDersler</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde grubun kralı olan grup projeleri! Herkesin canını sıkan şey</t>
+  </si>
+  <si>
+    <t>Ekran başında saatlerce oturuyoruz, gözlerimiz yandı! Artık yeter</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde öğretmenler mi yoksa uyku düşman mı bilmiyorum</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde soru sormaya cesaret edemiyoruz</t>
+  </si>
+  <si>
+    <t>Bunu geçmek için uğraşan, canı sıkılan birileri yok mu? #UzaktanEğitim</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde dersleri geri sarmak imkansız! Ne anlatıldığını anlamak da</t>
+  </si>
+  <si>
+    <t>Evin içinde hapsolduk, dışarı çıkmak için can atıyorum #UzaktanEğitim</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde her şey o kadar karışık ki, ne yapacağımızı şaşırdık</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde nasıl motive olacağımızı bilmiyorum. Yardım!</t>
+  </si>
+  <si>
+    <t>Dersleri anlamak için sürekli tekrar yapıyorum, hala anlamıyorum</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde arkadaşlarımla bağlantıyı koparıyoruz. Özlüyorum hepsini</t>
+  </si>
+  <si>
+    <t>Uykusuz geceler ve dersler arasında koşturmaca... Bu neyin derdi ya</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde dikkat dağılması en büyük düşmanımız</t>
+  </si>
+  <si>
+    <t>Hocalar bizi anlamıyor, zor dersler, bol ödevler... Ne yapacağız #UzaktanEğitim</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde grup projeleri tam bir kabus! İletişim nerede?</t>
+  </si>
+  <si>
+    <t>Teknolojik sorunlar, internet kopmaları… sal artık bizi uzaktan eğitim</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde öğretmenlerimize nasıl ulaşacağımızı bilemiyoruz</t>
+  </si>
+  <si>
+    <t>Bilgisayar başında saatlerce oturuyoruz, hareketsizlik sıkıntısı çekiyorum.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde sınıf atmosferini çok özlüyorum. Gerçek sınıflara ne zaman döneceğiz?</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde canlı derslerde geri bildirim alamıyoruz</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde zaman yönetimi yapmak imkansız her şey çok belirsiz</t>
+  </si>
+  <si>
+    <t>Ben uzaktan eğitimden çok sıkıldım.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde yeni şeyler öğrenmek için fırsatlar var</t>
+  </si>
+  <si>
+    <t>Evden çıkmadan derslere katılmak, rahatlığın en güzel yanı</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitim sayesinde daha bağımsız ve sorumluluk sahibi oluyoruz</t>
+  </si>
+  <si>
+    <t>Her gün yeni insanlarla sanal ortamda etkileşim kurmak çok heyecan verici!</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde esneklik sayesinde hobilerimize daha çok zaman ayırabiliyoruz.</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde ev konforunda öğrenmek, sınav stresini azaltıyor</t>
+  </si>
+  <si>
+    <t>Online kaynaklara erişimle yeni bilgileri keşfetmek çok kolay</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde farklı şehirlerden arkadaşlarla bağlantı kurmak çok eğlenceli!</t>
+  </si>
+  <si>
+    <t>uzaktan eğitimde kendi temponuzda öğrenmek, kendinizi geliştirmek mümkün</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde odaklanmak neredeyse imkansız</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde öğretmenlerin anlatımı hiçbir zaman sınıftaki gibi değil</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde sıkıcı sunumlar, uzun videolar... Bıktık artık</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde grup çalışmaları hiç işe yaramıyor, kimse birbirini anlamıyor</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde teknik sorunlar sürekli karşımıza çıkıyor, sinir bozucu</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde motivasyonu kaybettik, dersler bir işkenceye dönüştü</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde sosyal etkileşim sıfır, arkadaşlarımı özlüyorum</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde kaynak eksikliği, öğretim materyalleri yetersiz. Çok zor!</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde notlara adil bir şekilde ulaşamıyoruz, haksızlık var!</t>
+  </si>
+  <si>
+    <t>Uzaktan eğitimde öğrenmek yerine sadece not alıyoruz, bir şey kalmıyor</t>
+  </si>
+  <si>
+    <t>Bu sistem artık öğretme yolundan çıktı, ızdıraba döndü #uzaktaneğitim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1324,6 +1879,17 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1345,7 +1911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1362,6 +1928,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1643,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B417"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A340" sqref="A340"/>
+    <sheetView tabSelected="1" topLeftCell="A582" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A601" sqref="A601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4975,10 +5546,1484 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="2"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" s="2"/>
+      <c r="A416" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A479" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A480" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A481" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A482" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A483" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A484" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A485" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A486" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A487" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A488" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>497</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>502</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>503</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>504</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>505</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>506</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>507</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>510</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>511</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>512</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>513</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>514</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>515</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A516" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A517" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A518" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A519" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A520" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A521" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A522" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A523" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A524" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A525" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A526" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A527" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A528" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A529" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A530" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A531" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A532" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A533" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A534" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A535" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A536" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A537" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A538" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A539" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A540" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A541" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A542" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A543" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A544" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A545" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A546" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A547" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A548" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A549" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A550" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A551" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A552" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A553" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A554" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A555" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A556" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A557" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A558" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A559" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A560" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A561" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A562" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A563" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A564" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A565" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A566" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A567" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A568" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A569" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A570" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A571" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A572" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A573" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A574" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A575" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A576" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A577" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A578" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A579" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A580" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A581" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A582" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A583" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A584" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A585" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A586" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A587" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A588" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A589" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A590" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A591" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A592" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A593" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A594" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A595" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A596" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A597" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A598" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A599" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A600" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B600">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B414" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
